--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r111_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r111_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -506,10 +518,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -553,28 +565,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -599,28 +611,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="2">
+      <c r="I17" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -882,10 +894,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -929,28 +941,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -975,28 +987,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1258,10 +1270,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="K39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1305,28 +1317,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="2">
+      <c r="A41" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1351,28 +1363,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="2">
+      <c r="C43" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="2">
+      <c r="D43" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="2">
+      <c r="I43" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1634,10 +1646,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="J52" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="K52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1681,28 +1693,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1727,28 +1739,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1981,10 +1993,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="J64" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2028,28 +2040,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2074,28 +2086,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2328,10 +2340,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="J76" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="K76" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2375,28 +2387,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="2">
+      <c r="A78" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2421,28 +2433,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="2">
+      <c r="C80" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="2">
+      <c r="D80" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="2">
+      <c r="I80" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2675,10 +2687,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="2" t="s">
+      <c r="J88" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K88" s="2" t="s">
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2722,28 +2734,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2768,28 +2780,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="2">
+      <c r="I92" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3022,10 +3034,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
+      <c r="J100" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K100" s="2" t="s">
+      <c r="K100" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3069,28 +3081,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3115,28 +3127,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3398,10 +3410,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
+      <c r="J113" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K113" s="2" t="s">
+      <c r="K113" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3445,28 +3457,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3491,28 +3503,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3745,10 +3757,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
+      <c r="J125" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K125" s="2" t="s">
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3792,28 +3804,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3838,28 +3850,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4121,10 +4133,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
+      <c r="J138" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K138" s="2" t="s">
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4168,28 +4180,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4214,28 +4226,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4468,10 +4480,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
+      <c r="J150" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K150" s="2" t="s">
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4515,28 +4527,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4561,28 +4573,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4786,10 +4798,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="2" t="s">
+      <c r="J161" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K161" s="2" t="s">
+      <c r="K161" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4833,28 +4845,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="2">
+      <c r="A163" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4879,28 +4891,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="C165" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="2">
+      <c r="D165" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="2">
+      <c r="I165" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4988,10 +5000,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
+      <c r="J168" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K168" s="2" t="s">
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5035,28 +5047,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5081,28 +5093,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5219,10 +5231,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
+      <c r="J176" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K176" s="2" t="s">
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
